--- a/src/Palatine-selfbot-n8n.xlsx
+++ b/src/Palatine-selfbot-n8n.xlsx
@@ -5,7 +5,11 @@
   <sheets>
     <sheet state="visible" name="PasteChannelLinks" sheetId="1" r:id="rId5"/>
     <sheet state="visible" name="GetChannelIDs" sheetId="2" r:id="rId6"/>
-    <sheet state="visible" name="ModelsTests" sheetId="3" r:id="rId7"/>
+    <sheet state="visible" name="LLM_Parser_log" sheetId="3" r:id="rId7"/>
+    <sheet state="visible" name="RelevantMessages" sheetId="4" r:id="rId8"/>
+    <sheet state="visible" name="Workflow_exec_Errors" sheetId="5" r:id="rId9"/>
+    <sheet state="visible" name="SlowChatsOpener" sheetId="6" r:id="rId10"/>
+    <sheet state="visible" name="FrequentChatsOpener" sheetId="7" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="73">
   <si>
     <t>URLs</t>
   </si>
@@ -238,7 +242,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -279,6 +283,11 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -294,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -330,6 +339,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -347,6 +362,22 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -694,6 +725,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="36.38"/>
     <col customWidth="1" min="3" max="3" width="15.25"/>
   </cols>
   <sheetData>
@@ -1035,6 +1067,11 @@
       </c>
       <c r="E20" s="9">
         <v>4.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" s="9">
+        <v>7.4103976E8</v>
       </c>
     </row>
     <row r="26">
@@ -1123,4 +1160,460 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="14">
+        <v>-1.001355397423E12</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="14">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="14">
+        <v>-1.001368529433E12</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="14">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="14">
+        <v>-1.001355397423E12</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="14">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="14">
+        <v>-1.001713869488E12</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="14">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="14">
+        <v>-1.001227126149E12</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="14">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="14">
+        <v>-1.001400993706E12</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="14">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="14">
+        <v>-1.001875436239E12</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="14">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="14">
+        <v>-1.001320116679E12</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="14">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="14">
+        <v>-1.001490371259E12</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="14">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="14">
+        <v>-1.001325600676E12</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="14">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="14">
+        <v>-1.001493935574E12</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="14">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="14">
+        <v>-1.002357729236E12</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="14">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="14">
+        <v>-1.001496931309E12</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="14">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="14">
+        <v>-1.001386345486E12</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="14">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="14">
+        <v>-1.001797490588E12</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="14">
+        <v>4.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="A2"/>
+    <hyperlink r:id="rId2" ref="A3"/>
+    <hyperlink r:id="rId3" ref="A4"/>
+    <hyperlink r:id="rId4" ref="A5"/>
+    <hyperlink r:id="rId5" ref="A6"/>
+    <hyperlink r:id="rId6" ref="A7"/>
+    <hyperlink r:id="rId7" ref="A8"/>
+    <hyperlink r:id="rId8" ref="A9"/>
+    <hyperlink r:id="rId9" ref="A10"/>
+    <hyperlink r:id="rId10" ref="A11"/>
+    <hyperlink r:id="rId11" ref="A12"/>
+    <hyperlink r:id="rId12" ref="A13"/>
+    <hyperlink r:id="rId13" ref="A14"/>
+    <hyperlink r:id="rId14" ref="A15"/>
+    <hyperlink r:id="rId15" ref="A16"/>
+  </hyperlinks>
+  <drawing r:id="rId16"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="14">
+        <v>-1.001481574785E12</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="14">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="14">
+        <v>-1.001669426155E12</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="14">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="14">
+        <v>-1.002691668415E12</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="14">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="14">
+        <v>-1.001495935272E12</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="14">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="14">
+        <v>-1.001846101893E12</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="14">
+        <v>2.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="A2"/>
+    <hyperlink r:id="rId2" ref="A3"/>
+    <hyperlink r:id="rId3" ref="A4"/>
+    <hyperlink r:id="rId4" ref="A5"/>
+    <hyperlink r:id="rId5" ref="A6"/>
+  </hyperlinks>
+  <drawing r:id="rId6"/>
+</worksheet>
 </file>